--- a/bp.xlsx
+++ b/bp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiothon/Desktop/Code/Bloodpressure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2416DB-DC19-334E-9452-1530957A5DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E3E83-FED6-B942-93FA-956A3D934E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" xr2:uid="{87075B67-F28C-E54C-9857-AF2BFAF616D5}"/>
+    <workbookView xWindow="32140" yWindow="1660" windowWidth="29400" windowHeight="17080" xr2:uid="{87075B67-F28C-E54C-9857-AF2BFAF616D5}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +73,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,10 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +427,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,10 +442,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
